--- a/classData.xlsx
+++ b/classData.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonHN\AttributeProgram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\AttributeProgram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ClassData" sheetId="2" r:id="rId1"/>
     <sheet name="MergeData" sheetId="3" r:id="rId2"/>
     <sheet name="NameData" sheetId="4" r:id="rId3"/>
+    <sheet name="CategoryData" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="337">
   <si>
     <t>idx</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1312,14 +1313,70 @@
   </si>
   <si>
     <t>class83</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bag_color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hat_color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom_color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoes_color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryIdx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1373,14 +1430,6 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1846,7 +1895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1880,181 +1929,172 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2363,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2375,15 +2415,14 @@
     <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
     <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="8" max="9" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>177</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -2395,2176 +2434,2424 @@
       <c r="E1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="37" t="s">
         <v>189</v>
       </c>
+      <c r="I1" s="37" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
-        <v>0</v>
-      </c>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="16">
+        <v>0</v>
+      </c>
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="45">
-        <v>0</v>
-      </c>
-      <c r="G2" s="42">
-        <v>0</v>
-      </c>
-      <c r="H2" s="42">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13"/>
+      <c r="F2" s="41">
+        <v>0</v>
+      </c>
+      <c r="G2" s="38">
+        <v>0</v>
+      </c>
+      <c r="H2" s="38">
+        <v>0</v>
+      </c>
+      <c r="I2" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="46">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43">
-        <v>0</v>
-      </c>
-      <c r="H3" s="43">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14"/>
+      <c r="F3" s="42">
+        <v>0</v>
+      </c>
+      <c r="G3" s="39">
+        <v>0</v>
+      </c>
+      <c r="H3" s="39">
+        <v>0</v>
+      </c>
+      <c r="I3" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="46">
-        <v>0</v>
-      </c>
-      <c r="G4" s="43">
+      <c r="F4" s="42">
+        <v>0</v>
+      </c>
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="39">
         <v>1</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="46">
-        <v>0</v>
-      </c>
-      <c r="G5" s="43">
-        <v>0</v>
-      </c>
-      <c r="H5" s="43">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16"/>
+      <c r="F5" s="42">
+        <v>0</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0</v>
+      </c>
+      <c r="H5" s="39">
+        <v>0</v>
+      </c>
+      <c r="I5" s="38">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="46">
-        <v>0</v>
-      </c>
-      <c r="G6" s="43">
-        <v>0</v>
-      </c>
-      <c r="H6" s="43">
-        <v>0</v>
+      <c r="F6" s="42">
+        <v>0</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0</v>
+      </c>
+      <c r="H6" s="39">
+        <v>0</v>
+      </c>
+      <c r="I6" s="38">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="46">
-        <v>0</v>
-      </c>
-      <c r="G7" s="43">
-        <v>0</v>
-      </c>
-      <c r="H7" s="43">
-        <v>0</v>
+      <c r="F7" s="42">
+        <v>0</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+      <c r="H7" s="39">
+        <v>0</v>
+      </c>
+      <c r="I7" s="38">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="46">
-        <v>0</v>
-      </c>
-      <c r="G8" s="43">
-        <v>0</v>
-      </c>
-      <c r="H8" s="43">
-        <v>0</v>
+      <c r="F8" s="42">
+        <v>0</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0</v>
+      </c>
+      <c r="H8" s="39">
+        <v>0</v>
+      </c>
+      <c r="I8" s="38">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="46">
-        <v>0</v>
-      </c>
-      <c r="G9" s="43">
-        <v>0</v>
-      </c>
-      <c r="H9" s="43">
-        <v>0</v>
+      <c r="F9" s="42">
+        <v>0</v>
+      </c>
+      <c r="G9" s="39">
+        <v>0</v>
+      </c>
+      <c r="H9" s="39">
+        <v>0</v>
+      </c>
+      <c r="I9" s="38">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="46">
-        <v>0</v>
-      </c>
-      <c r="G10" s="43">
-        <v>0</v>
-      </c>
-      <c r="H10" s="43">
-        <v>0</v>
+      <c r="F10" s="42">
+        <v>0</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0</v>
+      </c>
+      <c r="H10" s="39">
+        <v>0</v>
+      </c>
+      <c r="I10" s="38">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="42">
         <v>1</v>
       </c>
-      <c r="G11" s="43">
-        <v>0</v>
-      </c>
-      <c r="H11" s="43">
-        <v>0</v>
+      <c r="G11" s="39">
+        <v>0</v>
+      </c>
+      <c r="H11" s="39">
+        <v>0</v>
+      </c>
+      <c r="I11" s="38">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="42">
         <v>1</v>
       </c>
-      <c r="G12" s="43">
-        <v>0</v>
-      </c>
-      <c r="H12" s="43">
-        <v>0</v>
+      <c r="G12" s="39">
+        <v>0</v>
+      </c>
+      <c r="H12" s="39">
+        <v>0</v>
+      </c>
+      <c r="I12" s="38">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="17">
         <v>11</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="42">
         <v>1</v>
       </c>
-      <c r="G13" s="43">
-        <v>0</v>
-      </c>
-      <c r="H13" s="43">
-        <v>0</v>
+      <c r="G13" s="39">
+        <v>0</v>
+      </c>
+      <c r="H13" s="39">
+        <v>0</v>
+      </c>
+      <c r="I13" s="38">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="17">
         <v>12</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F14" s="46">
-        <v>0</v>
-      </c>
-      <c r="G14" s="43">
+      <c r="F14" s="42">
+        <v>0</v>
+      </c>
+      <c r="G14" s="39">
         <v>1</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="39">
         <v>1</v>
       </c>
+      <c r="I14" s="38">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="17">
         <v>13</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="46">
-        <v>0</v>
-      </c>
-      <c r="G15" s="43">
-        <v>0</v>
-      </c>
-      <c r="H15" s="43">
-        <v>0</v>
+      <c r="F15" s="42">
+        <v>0</v>
+      </c>
+      <c r="G15" s="39">
+        <v>0</v>
+      </c>
+      <c r="H15" s="39">
+        <v>0</v>
+      </c>
+      <c r="I15" s="38">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="17">
         <v>14</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="46">
-        <v>0</v>
-      </c>
-      <c r="G16" s="43">
+      <c r="F16" s="42">
+        <v>0</v>
+      </c>
+      <c r="G16" s="39">
         <v>2</v>
       </c>
-      <c r="H16" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="H16" s="39">
+        <v>0</v>
+      </c>
+      <c r="I16" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
         <v>15</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="46">
-        <v>0</v>
-      </c>
-      <c r="G17" s="43">
+      <c r="F17" s="42">
+        <v>0</v>
+      </c>
+      <c r="G17" s="39">
         <v>2</v>
       </c>
-      <c r="H17" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="H17" s="39">
+        <v>0</v>
+      </c>
+      <c r="I17" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
         <v>16</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F18" s="46">
-        <v>0</v>
-      </c>
-      <c r="G18" s="43">
+      <c r="F18" s="42">
+        <v>0</v>
+      </c>
+      <c r="G18" s="39">
         <v>2</v>
       </c>
-      <c r="H18" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+      <c r="H18" s="39">
+        <v>0</v>
+      </c>
+      <c r="I18" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
         <v>17</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F19" s="46">
-        <v>0</v>
-      </c>
-      <c r="G19" s="43">
+      <c r="F19" s="42">
+        <v>0</v>
+      </c>
+      <c r="G19" s="39">
         <v>2</v>
       </c>
-      <c r="H19" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+      <c r="H19" s="39">
+        <v>0</v>
+      </c>
+      <c r="I19" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
         <v>18</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="46">
-        <v>0</v>
-      </c>
-      <c r="G20" s="43">
+      <c r="F20" s="42">
+        <v>0</v>
+      </c>
+      <c r="G20" s="39">
         <v>2</v>
       </c>
-      <c r="H20" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+      <c r="H20" s="39">
+        <v>0</v>
+      </c>
+      <c r="I20" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
         <v>19</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F21" s="46">
-        <v>0</v>
-      </c>
-      <c r="G21" s="43">
+      <c r="F21" s="42">
+        <v>0</v>
+      </c>
+      <c r="G21" s="39">
         <v>2</v>
       </c>
-      <c r="H21" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
+      <c r="H21" s="39">
+        <v>0</v>
+      </c>
+      <c r="I21" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
         <v>20</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F22" s="46">
-        <v>0</v>
-      </c>
-      <c r="G22" s="43">
+      <c r="F22" s="42">
+        <v>0</v>
+      </c>
+      <c r="G22" s="39">
         <v>2</v>
       </c>
-      <c r="H22" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+      <c r="H22" s="39">
+        <v>0</v>
+      </c>
+      <c r="I22" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
         <v>21</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F23" s="46">
-        <v>0</v>
-      </c>
-      <c r="G23" s="43">
+      <c r="F23" s="42">
+        <v>0</v>
+      </c>
+      <c r="G23" s="39">
         <v>2</v>
       </c>
-      <c r="H23" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="H23" s="39">
+        <v>0</v>
+      </c>
+      <c r="I23" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
         <v>22</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F24" s="46">
-        <v>0</v>
-      </c>
-      <c r="G24" s="43">
+      <c r="F24" s="42">
+        <v>0</v>
+      </c>
+      <c r="G24" s="39">
         <v>2</v>
       </c>
-      <c r="H24" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+      <c r="H24" s="39">
+        <v>0</v>
+      </c>
+      <c r="I24" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
         <v>23</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F25" s="46">
-        <v>0</v>
-      </c>
-      <c r="G25" s="43">
+      <c r="F25" s="42">
+        <v>0</v>
+      </c>
+      <c r="G25" s="39">
         <v>1</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+      <c r="I25" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
         <v>24</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="46">
-        <v>0</v>
-      </c>
-      <c r="G26" s="43">
-        <v>0</v>
-      </c>
-      <c r="H26" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
+      <c r="F26" s="42">
+        <v>0</v>
+      </c>
+      <c r="G26" s="39">
+        <v>0</v>
+      </c>
+      <c r="H26" s="39">
+        <v>0</v>
+      </c>
+      <c r="I26" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
         <v>25</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="42">
         <v>2</v>
       </c>
-      <c r="G27" s="43">
-        <v>0</v>
-      </c>
-      <c r="H27" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
+      <c r="G27" s="39">
+        <v>0</v>
+      </c>
+      <c r="H27" s="39">
+        <v>0</v>
+      </c>
+      <c r="I27" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
         <v>26</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="42">
         <v>2</v>
       </c>
-      <c r="G28" s="43">
-        <v>0</v>
-      </c>
-      <c r="H28" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
+      <c r="G28" s="39">
+        <v>0</v>
+      </c>
+      <c r="H28" s="39">
+        <v>0</v>
+      </c>
+      <c r="I28" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
         <v>27</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="46">
+      <c r="F29" s="42">
         <v>2</v>
       </c>
-      <c r="G29" s="43">
-        <v>0</v>
-      </c>
-      <c r="H29" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
+      <c r="G29" s="39">
+        <v>0</v>
+      </c>
+      <c r="H29" s="39">
+        <v>0</v>
+      </c>
+      <c r="I29" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="17">
         <v>28</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="42">
         <v>2</v>
       </c>
-      <c r="G30" s="43">
-        <v>0</v>
-      </c>
-      <c r="H30" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
+      <c r="G30" s="39">
+        <v>0</v>
+      </c>
+      <c r="H30" s="39">
+        <v>0</v>
+      </c>
+      <c r="I30" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="17">
         <v>29</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="46">
-        <v>0</v>
-      </c>
-      <c r="G31" s="43">
-        <v>0</v>
-      </c>
-      <c r="H31" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="21">
+      <c r="F31" s="42">
+        <v>0</v>
+      </c>
+      <c r="G31" s="39">
+        <v>0</v>
+      </c>
+      <c r="H31" s="39">
+        <v>0</v>
+      </c>
+      <c r="I31" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="17">
         <v>30</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="46">
-        <v>0</v>
-      </c>
-      <c r="G32" s="43">
+      <c r="F32" s="42">
+        <v>0</v>
+      </c>
+      <c r="G32" s="39">
         <v>1</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="21">
+      <c r="I32" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="17">
         <v>31</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="F33" s="46">
-        <v>0</v>
-      </c>
-      <c r="G33" s="43">
+      <c r="F33" s="42">
+        <v>0</v>
+      </c>
+      <c r="G33" s="39">
         <v>2</v>
       </c>
-      <c r="H33" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="21">
+      <c r="H33" s="39">
+        <v>0</v>
+      </c>
+      <c r="I33" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
         <v>32</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="F34" s="46">
-        <v>0</v>
-      </c>
-      <c r="G34" s="43">
+      <c r="F34" s="42">
+        <v>0</v>
+      </c>
+      <c r="G34" s="39">
         <v>2</v>
       </c>
-      <c r="H34" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="21">
+      <c r="H34" s="39">
+        <v>0</v>
+      </c>
+      <c r="I34" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
         <v>33</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="F35" s="46">
-        <v>0</v>
-      </c>
-      <c r="G35" s="43">
+      <c r="F35" s="42">
+        <v>0</v>
+      </c>
+      <c r="G35" s="39">
         <v>2</v>
       </c>
-      <c r="H35" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="21">
+      <c r="H35" s="39">
+        <v>0</v>
+      </c>
+      <c r="I35" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="17">
         <v>34</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="F36" s="46">
-        <v>0</v>
-      </c>
-      <c r="G36" s="43">
+      <c r="F36" s="42">
+        <v>0</v>
+      </c>
+      <c r="G36" s="39">
         <v>2</v>
       </c>
-      <c r="H36" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="21">
+      <c r="H36" s="39">
+        <v>0</v>
+      </c>
+      <c r="I36" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="17">
         <v>35</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="F37" s="46">
-        <v>0</v>
-      </c>
-      <c r="G37" s="43">
+      <c r="F37" s="42">
+        <v>0</v>
+      </c>
+      <c r="G37" s="39">
         <v>2</v>
       </c>
-      <c r="H37" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="21">
+      <c r="H37" s="39">
+        <v>0</v>
+      </c>
+      <c r="I37" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="17">
         <v>36</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="46">
-        <v>0</v>
-      </c>
-      <c r="G38" s="43">
+      <c r="F38" s="42">
+        <v>0</v>
+      </c>
+      <c r="G38" s="39">
         <v>2</v>
       </c>
-      <c r="H38" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="21">
+      <c r="H38" s="39">
+        <v>0</v>
+      </c>
+      <c r="I38" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
         <v>37</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="46">
-        <v>0</v>
-      </c>
-      <c r="G39" s="43">
+      <c r="F39" s="42">
+        <v>0</v>
+      </c>
+      <c r="G39" s="39">
         <v>2</v>
       </c>
-      <c r="H39" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+      <c r="H39" s="39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="17">
         <v>38</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="F40" s="46">
-        <v>0</v>
-      </c>
-      <c r="G40" s="43">
+      <c r="F40" s="42">
+        <v>0</v>
+      </c>
+      <c r="G40" s="39">
         <v>2</v>
       </c>
-      <c r="H40" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="21">
+      <c r="H40" s="39">
+        <v>0</v>
+      </c>
+      <c r="I40" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="17">
         <v>39</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="46">
-        <v>0</v>
-      </c>
-      <c r="G41" s="43">
+      <c r="F41" s="42">
+        <v>0</v>
+      </c>
+      <c r="G41" s="39">
         <v>2</v>
       </c>
-      <c r="H41" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="21">
+      <c r="H41" s="39">
+        <v>0</v>
+      </c>
+      <c r="I41" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="17">
         <v>40</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="F42" s="46">
-        <v>0</v>
-      </c>
-      <c r="G42" s="43">
+      <c r="F42" s="42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="39">
         <v>1</v>
       </c>
-      <c r="H42" s="43">
+      <c r="H42" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="21">
+      <c r="I42" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="17">
         <v>41</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="46">
-        <v>0</v>
-      </c>
-      <c r="G43" s="43">
-        <v>0</v>
-      </c>
-      <c r="H43" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="21">
+      <c r="F43" s="42">
+        <v>0</v>
+      </c>
+      <c r="G43" s="39">
+        <v>0</v>
+      </c>
+      <c r="H43" s="39">
+        <v>0</v>
+      </c>
+      <c r="I43" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="17">
         <v>42</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="46">
-        <v>0</v>
-      </c>
-      <c r="G44" s="43">
-        <v>0</v>
-      </c>
-      <c r="H44" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="21">
+      <c r="F44" s="42">
+        <v>0</v>
+      </c>
+      <c r="G44" s="39">
+        <v>0</v>
+      </c>
+      <c r="H44" s="39">
+        <v>0</v>
+      </c>
+      <c r="I44" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="17">
         <v>43</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E45" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="46">
-        <v>0</v>
-      </c>
-      <c r="G45" s="43">
+      <c r="F45" s="42">
+        <v>0</v>
+      </c>
+      <c r="G45" s="39">
         <v>1</v>
       </c>
-      <c r="H45" s="43">
+      <c r="H45" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="21">
+      <c r="I45" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="17">
         <v>44</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="D46" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="43">
+      <c r="F46" s="42">
+        <v>0</v>
+      </c>
+      <c r="G46" s="39">
         <v>1</v>
       </c>
-      <c r="H46" s="43">
+      <c r="H46" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="21">
+      <c r="I46" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="17">
         <v>45</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F47" s="46">
-        <v>0</v>
-      </c>
-      <c r="G47" s="43">
-        <v>0</v>
-      </c>
-      <c r="H47" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="21">
+      <c r="F47" s="42">
+        <v>0</v>
+      </c>
+      <c r="G47" s="39">
+        <v>0</v>
+      </c>
+      <c r="H47" s="39">
+        <v>0</v>
+      </c>
+      <c r="I47" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="17">
         <v>46</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="46">
-        <v>0</v>
-      </c>
-      <c r="G48" s="43">
-        <v>0</v>
-      </c>
-      <c r="H48" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="21">
+      <c r="F48" s="42">
+        <v>0</v>
+      </c>
+      <c r="G48" s="39">
+        <v>0</v>
+      </c>
+      <c r="H48" s="39">
+        <v>0</v>
+      </c>
+      <c r="I48" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="17">
         <v>47</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="48" t="s">
+      <c r="D49" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="46">
-        <v>0</v>
-      </c>
-      <c r="G49" s="43">
+      <c r="F49" s="42">
+        <v>0</v>
+      </c>
+      <c r="G49" s="39">
         <v>1</v>
       </c>
-      <c r="H49" s="43">
+      <c r="H49" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="21">
+      <c r="I49" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="17">
         <v>48</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="56" t="s">
         <v>136</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="46">
-        <v>0</v>
-      </c>
-      <c r="G50" s="43">
-        <v>0</v>
-      </c>
-      <c r="H50" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="21">
+      <c r="F50" s="42">
+        <v>0</v>
+      </c>
+      <c r="G50" s="39">
+        <v>0</v>
+      </c>
+      <c r="H50" s="39">
+        <v>0</v>
+      </c>
+      <c r="I50" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="17">
         <v>49</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="56" t="s">
         <v>136</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="46">
-        <v>0</v>
-      </c>
-      <c r="G51" s="43">
-        <v>0</v>
-      </c>
-      <c r="H51" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="21">
+      <c r="F51" s="42">
+        <v>0</v>
+      </c>
+      <c r="G51" s="39">
+        <v>0</v>
+      </c>
+      <c r="H51" s="39">
+        <v>0</v>
+      </c>
+      <c r="I51" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="17">
         <v>50</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="56" t="s">
         <v>136</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="46">
-        <v>0</v>
-      </c>
-      <c r="G52" s="43">
-        <v>0</v>
-      </c>
-      <c r="H52" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="21">
+      <c r="F52" s="42">
+        <v>0</v>
+      </c>
+      <c r="G52" s="39">
+        <v>0</v>
+      </c>
+      <c r="H52" s="39">
+        <v>0</v>
+      </c>
+      <c r="I52" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="17">
         <v>51</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="60" t="s">
+      <c r="C53" s="56" t="s">
         <v>136</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E53" s="37" t="s">
+      <c r="E53" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F53" s="46">
-        <v>0</v>
-      </c>
-      <c r="G53" s="43">
-        <v>0</v>
-      </c>
-      <c r="H53" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
+      <c r="F53" s="42">
+        <v>0</v>
+      </c>
+      <c r="G53" s="39">
+        <v>0</v>
+      </c>
+      <c r="H53" s="39">
+        <v>0</v>
+      </c>
+      <c r="I53" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="17">
         <v>52</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="56" t="s">
         <v>136</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F54" s="46">
-        <v>0</v>
-      </c>
-      <c r="G54" s="43">
-        <v>0</v>
-      </c>
-      <c r="H54" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="21">
+      <c r="F54" s="42">
+        <v>0</v>
+      </c>
+      <c r="G54" s="39">
+        <v>0</v>
+      </c>
+      <c r="H54" s="39">
+        <v>0</v>
+      </c>
+      <c r="I54" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="17">
         <v>53</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="56" t="s">
         <v>136</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F55" s="46">
-        <v>0</v>
-      </c>
-      <c r="G55" s="43">
-        <v>0</v>
-      </c>
-      <c r="H55" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="F55" s="42">
+        <v>0</v>
+      </c>
+      <c r="G55" s="39">
+        <v>0</v>
+      </c>
+      <c r="H55" s="39">
+        <v>0</v>
+      </c>
+      <c r="I55" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="17">
         <v>54</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C56" s="56" t="s">
         <v>136</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F56" s="46">
-        <v>0</v>
-      </c>
-      <c r="G56" s="43">
-        <v>0</v>
-      </c>
-      <c r="H56" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="21">
+      <c r="F56" s="42">
+        <v>0</v>
+      </c>
+      <c r="G56" s="39">
+        <v>0</v>
+      </c>
+      <c r="H56" s="39">
+        <v>0</v>
+      </c>
+      <c r="I56" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="17">
         <v>55</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="56" t="s">
         <v>136</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F57" s="46">
-        <v>0</v>
-      </c>
-      <c r="G57" s="43">
-        <v>0</v>
-      </c>
-      <c r="H57" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="21">
+      <c r="F57" s="42">
+        <v>0</v>
+      </c>
+      <c r="G57" s="39">
+        <v>0</v>
+      </c>
+      <c r="H57" s="39">
+        <v>0</v>
+      </c>
+      <c r="I57" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="17">
         <v>56</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="60" t="s">
+      <c r="C58" s="56" t="s">
         <v>136</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E58" s="37" t="s">
+      <c r="E58" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F58" s="46">
-        <v>0</v>
-      </c>
-      <c r="G58" s="43">
-        <v>0</v>
-      </c>
-      <c r="H58" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="21">
+      <c r="F58" s="42">
+        <v>0</v>
+      </c>
+      <c r="G58" s="39">
+        <v>0</v>
+      </c>
+      <c r="H58" s="39">
+        <v>0</v>
+      </c>
+      <c r="I58" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="17">
         <v>57</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" s="56" t="s">
         <v>136</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E59" s="37" t="s">
+      <c r="E59" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F59" s="46">
-        <v>0</v>
-      </c>
-      <c r="G59" s="43">
+      <c r="F59" s="42">
+        <v>0</v>
+      </c>
+      <c r="G59" s="39">
         <v>1</v>
       </c>
-      <c r="H59" s="43">
+      <c r="H59" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="21">
+      <c r="I59" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="17">
         <v>58</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="61" t="s">
+      <c r="C60" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="E60" s="38" t="s">
+      <c r="E60" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="F60" s="46">
-        <v>0</v>
-      </c>
-      <c r="G60" s="43">
-        <v>0</v>
-      </c>
-      <c r="H60" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="21">
+      <c r="F60" s="42">
+        <v>0</v>
+      </c>
+      <c r="G60" s="39">
+        <v>0</v>
+      </c>
+      <c r="H60" s="39">
+        <v>0</v>
+      </c>
+      <c r="I60" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="17">
         <v>59</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D61" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E61" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="F61" s="46">
-        <v>0</v>
-      </c>
-      <c r="G61" s="43">
-        <v>0</v>
-      </c>
-      <c r="H61" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="21">
+      <c r="F61" s="42">
+        <v>0</v>
+      </c>
+      <c r="G61" s="39">
+        <v>0</v>
+      </c>
+      <c r="H61" s="39">
+        <v>0</v>
+      </c>
+      <c r="I61" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="17">
         <v>60</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="61" t="s">
+      <c r="C62" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E62" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F62" s="46">
-        <v>0</v>
-      </c>
-      <c r="G62" s="43">
-        <v>0</v>
-      </c>
-      <c r="H62" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="21">
+      <c r="F62" s="42">
+        <v>0</v>
+      </c>
+      <c r="G62" s="39">
+        <v>0</v>
+      </c>
+      <c r="H62" s="39">
+        <v>0</v>
+      </c>
+      <c r="I62" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="17">
         <v>61</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="F63" s="46">
-        <v>0</v>
-      </c>
-      <c r="G63" s="43">
-        <v>0</v>
-      </c>
-      <c r="H63" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="21">
+      <c r="F63" s="42">
+        <v>0</v>
+      </c>
+      <c r="G63" s="39">
+        <v>0</v>
+      </c>
+      <c r="H63" s="39">
+        <v>0</v>
+      </c>
+      <c r="I63" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="17">
         <v>62</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="61" t="s">
+      <c r="C64" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="E64" s="39" t="s">
+      <c r="E64" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F64" s="46">
-        <v>0</v>
-      </c>
-      <c r="G64" s="43">
+      <c r="F64" s="42">
+        <v>0</v>
+      </c>
+      <c r="G64" s="39">
         <v>1</v>
       </c>
-      <c r="H64" s="43">
+      <c r="H64" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="21">
+      <c r="I64" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="17">
         <v>63</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="57" t="s">
         <v>137</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E65" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F65" s="46">
-        <v>0</v>
-      </c>
-      <c r="G65" s="43">
-        <v>0</v>
-      </c>
-      <c r="H65" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
+      <c r="F65" s="42">
+        <v>0</v>
+      </c>
+      <c r="G65" s="39">
+        <v>0</v>
+      </c>
+      <c r="H65" s="39">
+        <v>0</v>
+      </c>
+      <c r="I65" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="17">
         <v>64</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="61" t="s">
+      <c r="C66" s="57" t="s">
         <v>137</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E66" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F66" s="46">
-        <v>0</v>
-      </c>
-      <c r="G66" s="43">
-        <v>0</v>
-      </c>
-      <c r="H66" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="21">
+      <c r="F66" s="42">
+        <v>0</v>
+      </c>
+      <c r="G66" s="39">
+        <v>0</v>
+      </c>
+      <c r="H66" s="39">
+        <v>0</v>
+      </c>
+      <c r="I66" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="17">
         <v>65</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="61" t="s">
+      <c r="C67" s="57" t="s">
         <v>137</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="E67" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F67" s="46">
-        <v>0</v>
-      </c>
-      <c r="G67" s="43">
-        <v>0</v>
-      </c>
-      <c r="H67" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="21">
+      <c r="F67" s="42">
+        <v>0</v>
+      </c>
+      <c r="G67" s="39">
+        <v>0</v>
+      </c>
+      <c r="H67" s="39">
+        <v>0</v>
+      </c>
+      <c r="I67" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="17">
         <v>66</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="61" t="s">
+      <c r="C68" s="57" t="s">
         <v>137</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="E68" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F68" s="46">
-        <v>0</v>
-      </c>
-      <c r="G68" s="43">
-        <v>0</v>
-      </c>
-      <c r="H68" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="21">
+      <c r="F68" s="42">
+        <v>0</v>
+      </c>
+      <c r="G68" s="39">
+        <v>0</v>
+      </c>
+      <c r="H68" s="39">
+        <v>0</v>
+      </c>
+      <c r="I68" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="17">
         <v>67</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="61" t="s">
+      <c r="C69" s="57" t="s">
         <v>137</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F69" s="46">
-        <v>0</v>
-      </c>
-      <c r="G69" s="43">
-        <v>0</v>
-      </c>
-      <c r="H69" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="21">
+      <c r="F69" s="42">
+        <v>0</v>
+      </c>
+      <c r="G69" s="39">
+        <v>0</v>
+      </c>
+      <c r="H69" s="39">
+        <v>0</v>
+      </c>
+      <c r="I69" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="17">
         <v>68</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="61" t="s">
+      <c r="C70" s="57" t="s">
         <v>137</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E70" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F70" s="46">
-        <v>0</v>
-      </c>
-      <c r="G70" s="43">
-        <v>0</v>
-      </c>
-      <c r="H70" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="21">
+      <c r="F70" s="42">
+        <v>0</v>
+      </c>
+      <c r="G70" s="39">
+        <v>0</v>
+      </c>
+      <c r="H70" s="39">
+        <v>0</v>
+      </c>
+      <c r="I70" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="17">
         <v>69</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="57" t="s">
         <v>137</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="E71" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F71" s="46">
-        <v>0</v>
-      </c>
-      <c r="G71" s="43">
-        <v>0</v>
-      </c>
-      <c r="H71" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="21">
+      <c r="F71" s="42">
+        <v>0</v>
+      </c>
+      <c r="G71" s="39">
+        <v>0</v>
+      </c>
+      <c r="H71" s="39">
+        <v>0</v>
+      </c>
+      <c r="I71" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="17">
         <v>70</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="61" t="s">
+      <c r="C72" s="57" t="s">
         <v>137</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E72" s="39" t="s">
+      <c r="E72" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F72" s="46">
-        <v>0</v>
-      </c>
-      <c r="G72" s="43">
-        <v>0</v>
-      </c>
-      <c r="H72" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="21">
+      <c r="F72" s="42">
+        <v>0</v>
+      </c>
+      <c r="G72" s="39">
+        <v>0</v>
+      </c>
+      <c r="H72" s="39">
+        <v>0</v>
+      </c>
+      <c r="I72" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="17">
         <v>71</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="57" t="s">
         <v>137</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="E73" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F73" s="46">
-        <v>0</v>
-      </c>
-      <c r="G73" s="43">
-        <v>0</v>
-      </c>
-      <c r="H73" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="21">
+      <c r="F73" s="42">
+        <v>0</v>
+      </c>
+      <c r="G73" s="39">
+        <v>0</v>
+      </c>
+      <c r="H73" s="39">
+        <v>0</v>
+      </c>
+      <c r="I73" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="17">
         <v>72</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="61" t="s">
+      <c r="C74" s="57" t="s">
         <v>137</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E74" s="39" t="s">
+      <c r="E74" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F74" s="46">
-        <v>0</v>
-      </c>
-      <c r="G74" s="43">
+      <c r="F74" s="42">
+        <v>0</v>
+      </c>
+      <c r="G74" s="39">
         <v>1</v>
       </c>
-      <c r="H74" s="43">
+      <c r="H74" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="21">
+      <c r="I74" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="17">
         <v>73</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D75" s="50" t="s">
+      <c r="D75" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="F75" s="46">
-        <v>0</v>
-      </c>
-      <c r="G75" s="43">
+      <c r="F75" s="42">
+        <v>0</v>
+      </c>
+      <c r="G75" s="39">
         <v>2</v>
       </c>
-      <c r="H75" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="21">
+      <c r="H75" s="39">
+        <v>0</v>
+      </c>
+      <c r="I75" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="17">
         <v>74</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="61" t="s">
+      <c r="C76" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D76" s="50" t="s">
+      <c r="D76" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E76" s="39" t="s">
+      <c r="E76" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="F76" s="46">
-        <v>0</v>
-      </c>
-      <c r="G76" s="43">
+      <c r="F76" s="42">
+        <v>0</v>
+      </c>
+      <c r="G76" s="39">
         <v>2</v>
       </c>
-      <c r="H76" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="21">
+      <c r="H76" s="39">
+        <v>0</v>
+      </c>
+      <c r="I76" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="17">
         <v>75</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="61" t="s">
+      <c r="C77" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="50" t="s">
+      <c r="D77" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="E77" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="F77" s="46">
-        <v>0</v>
-      </c>
-      <c r="G77" s="43">
+      <c r="F77" s="42">
+        <v>0</v>
+      </c>
+      <c r="G77" s="39">
         <v>2</v>
       </c>
-      <c r="H77" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="21">
+      <c r="H77" s="39">
+        <v>0</v>
+      </c>
+      <c r="I77" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="17">
         <v>76</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="61" t="s">
+      <c r="C78" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D78" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E78" s="39" t="s">
+      <c r="E78" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="F78" s="46">
-        <v>0</v>
-      </c>
-      <c r="G78" s="43">
+      <c r="F78" s="42">
+        <v>0</v>
+      </c>
+      <c r="G78" s="39">
         <v>2</v>
       </c>
-      <c r="H78" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="21">
+      <c r="H78" s="39">
+        <v>0</v>
+      </c>
+      <c r="I78" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="17">
         <v>77</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="61" t="s">
+      <c r="C79" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D79" s="50" t="s">
+      <c r="D79" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="F79" s="46">
-        <v>0</v>
-      </c>
-      <c r="G79" s="43">
+      <c r="F79" s="42">
+        <v>0</v>
+      </c>
+      <c r="G79" s="39">
         <v>2</v>
       </c>
-      <c r="H79" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="21">
+      <c r="H79" s="39">
+        <v>0</v>
+      </c>
+      <c r="I79" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="17">
         <v>78</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="61" t="s">
+      <c r="C80" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D80" s="50" t="s">
+      <c r="D80" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E80" s="39" t="s">
+      <c r="E80" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="F80" s="46">
-        <v>0</v>
-      </c>
-      <c r="G80" s="43">
+      <c r="F80" s="42">
+        <v>0</v>
+      </c>
+      <c r="G80" s="39">
         <v>2</v>
       </c>
-      <c r="H80" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="21">
+      <c r="H80" s="39">
+        <v>0</v>
+      </c>
+      <c r="I80" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="17">
         <v>79</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="D81" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E81" s="39" t="s">
+      <c r="E81" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F81" s="46">
-        <v>0</v>
-      </c>
-      <c r="G81" s="43">
+      <c r="F81" s="42">
+        <v>0</v>
+      </c>
+      <c r="G81" s="39">
         <v>2</v>
       </c>
-      <c r="H81" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="21">
+      <c r="H81" s="39">
+        <v>0</v>
+      </c>
+      <c r="I81" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="17">
         <v>80</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="61" t="s">
+      <c r="C82" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D82" s="50" t="s">
+      <c r="D82" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E82" s="39" t="s">
+      <c r="E82" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="F82" s="46">
-        <v>0</v>
-      </c>
-      <c r="G82" s="43">
+      <c r="F82" s="42">
+        <v>0</v>
+      </c>
+      <c r="G82" s="39">
         <v>2</v>
       </c>
-      <c r="H82" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="21">
+      <c r="H82" s="39">
+        <v>0</v>
+      </c>
+      <c r="I82" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="17">
         <v>81</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D83" s="50" t="s">
+      <c r="D83" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E83" s="39" t="s">
+      <c r="E83" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="F83" s="46">
-        <v>0</v>
-      </c>
-      <c r="G83" s="43">
+      <c r="F83" s="42">
+        <v>0</v>
+      </c>
+      <c r="G83" s="39">
         <v>2</v>
       </c>
-      <c r="H83" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="22">
+      <c r="H83" s="39">
+        <v>0</v>
+      </c>
+      <c r="I83" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="18">
         <v>82</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="62" t="s">
+      <c r="C84" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="D84" s="56" t="s">
+      <c r="D84" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="40" t="s">
+      <c r="E84" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="F84" s="47">
-        <v>0</v>
-      </c>
-      <c r="G84" s="47">
+      <c r="F84" s="43">
+        <v>0</v>
+      </c>
+      <c r="G84" s="43">
         <v>1</v>
       </c>
-      <c r="H84" s="44">
+      <c r="H84" s="40">
         <v>1</v>
+      </c>
+      <c r="I84" s="43">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4613,7 +4900,7 @@
       <c r="C2" s="7">
         <v>8</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4627,7 +4914,7 @@
       <c r="C3" s="8">
         <v>11</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4652,1179 +4939,1303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="63" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="63" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="66">
-        <v>0</v>
-      </c>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="62">
+        <v>0</v>
+      </c>
+      <c r="B2" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="61" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="66">
+      <c r="A3" s="62">
         <v>1</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="61" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="66">
+      <c r="A4" s="62">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="61" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="66">
+      <c r="A5" s="62">
         <v>3</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="61" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="66">
+      <c r="A6" s="62">
         <v>4</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="61" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="66">
+      <c r="A7" s="62">
         <v>5</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="61" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="66">
+      <c r="A8" s="62">
         <v>6</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="61" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="66">
+      <c r="A9" s="62">
         <v>7</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="66">
+      <c r="A10" s="62">
         <v>8</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="60" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="66">
+      <c r="A11" s="62">
         <v>9</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="61" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="66">
+      <c r="A12" s="62">
         <v>10</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="60" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="66">
+      <c r="A13" s="62">
         <v>11</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="60" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="66">
+      <c r="A14" s="62">
         <v>12</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="60" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="66">
+      <c r="A15" s="62">
         <v>13</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="60" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="66">
+      <c r="A16" s="62">
         <v>14</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="60" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="66">
+      <c r="A17" s="62">
         <v>15</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="60" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="66">
+      <c r="A18" s="62">
         <v>16</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="60" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="66">
+      <c r="A19" s="62">
         <v>17</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="60" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="66">
+      <c r="A20" s="62">
         <v>18</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="60" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="66">
+      <c r="A21" s="62">
         <v>19</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="60" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="66">
+      <c r="A22" s="62">
         <v>20</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="60" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="66">
+      <c r="A23" s="62">
         <v>21</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="60" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="66">
+      <c r="A24" s="62">
         <v>22</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="60" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="66">
+      <c r="A25" s="62">
         <v>23</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="60" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="66">
+      <c r="A26" s="62">
         <v>24</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="60" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="66">
+      <c r="A27" s="62">
         <v>25</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="60" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="66">
+      <c r="A28" s="62">
         <v>26</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="60" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="66">
+      <c r="A29" s="62">
         <v>27</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="60" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="66">
+      <c r="A30" s="62">
         <v>28</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="60" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="66">
+      <c r="A31" s="62">
         <v>29</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="60" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="66">
+      <c r="A32" s="62">
         <v>30</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="61" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="66">
+      <c r="A33" s="62">
         <v>31</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="65" t="s">
+      <c r="D33" s="61" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="66">
+      <c r="A34" s="62">
         <v>32</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="61" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="66">
+      <c r="A35" s="62">
         <v>33</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="61" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="66">
+      <c r="A36" s="62">
         <v>34</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="65" t="s">
+      <c r="D36" s="61" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="66">
+      <c r="A37" s="62">
         <v>35</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="61" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="66">
+      <c r="A38" s="62">
         <v>36</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="61" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="66">
+      <c r="A39" s="62">
         <v>37</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="61" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="66">
+      <c r="A40" s="62">
         <v>38</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="65" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="66">
+      <c r="A41" s="62">
         <v>39</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="66">
+      <c r="A42" s="62">
         <v>40</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="D42" s="68" t="s">
+      <c r="D42" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="66">
+      <c r="A43" s="62">
         <v>41</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="66">
+      <c r="A44" s="62">
         <v>42</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="C44" s="65" t="s">
+      <c r="C44" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="68" t="s">
+      <c r="D44" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="66">
+      <c r="A45" s="62">
         <v>43</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="D45" s="68" t="s">
+      <c r="D45" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="66">
+      <c r="A46" s="62">
         <v>44</v>
       </c>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="D46" s="68" t="s">
+      <c r="D46" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="66">
+      <c r="A47" s="62">
         <v>45</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="66">
+      <c r="A48" s="62">
         <v>46</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="66">
+      <c r="A49" s="62">
         <v>47</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="D49" s="68" t="s">
+      <c r="D49" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="66">
+      <c r="A50" s="62">
         <v>48</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="C50" s="65" t="s">
+      <c r="C50" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="D50" s="68" t="s">
+      <c r="D50" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="66">
+      <c r="A51" s="62">
         <v>49</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="D51" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="66">
+      <c r="A52" s="62">
         <v>50</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="C52" s="65" t="s">
+      <c r="C52" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="D52" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="66">
+      <c r="A53" s="62">
         <v>51</v>
       </c>
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="D53" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="66">
+      <c r="A54" s="62">
         <v>52</v>
       </c>
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="D54" s="68" t="s">
+      <c r="D54" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="66">
+      <c r="A55" s="62">
         <v>53</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="D55" s="68" t="s">
+      <c r="D55" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="66">
+      <c r="A56" s="62">
         <v>54</v>
       </c>
-      <c r="B56" s="65" t="s">
+      <c r="B56" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="C56" s="65" t="s">
+      <c r="C56" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="D56" s="68" t="s">
+      <c r="D56" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="66">
+      <c r="A57" s="62">
         <v>55</v>
       </c>
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="65" t="s">
+      <c r="C57" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="D57" s="68" t="s">
+      <c r="D57" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="66">
+      <c r="A58" s="62">
         <v>56</v>
       </c>
-      <c r="B58" s="65" t="s">
+      <c r="B58" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="C58" s="65" t="s">
+      <c r="C58" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="D58" s="68" t="s">
+      <c r="D58" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="66">
+      <c r="A59" s="62">
         <v>57</v>
       </c>
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="65" t="s">
+      <c r="C59" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="68" t="s">
+      <c r="D59" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="66">
+      <c r="A60" s="62">
         <v>58</v>
       </c>
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="C60" s="65" t="s">
+      <c r="C60" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="D60" s="68" t="s">
+      <c r="D60" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="66">
+      <c r="A61" s="62">
         <v>59</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="65" t="s">
+      <c r="C61" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="D61" s="68" t="s">
+      <c r="D61" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="66">
+      <c r="A62" s="62">
         <v>60</v>
       </c>
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="C62" s="65" t="s">
+      <c r="C62" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="D62" s="68" t="s">
+      <c r="D62" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="66">
+      <c r="A63" s="62">
         <v>61</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="D63" s="68" t="s">
+      <c r="D63" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="66">
+      <c r="A64" s="62">
         <v>62</v>
       </c>
-      <c r="B64" s="65" t="s">
+      <c r="B64" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="C64" s="65" t="s">
+      <c r="C64" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="D64" s="68" t="s">
+      <c r="D64" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="66">
+      <c r="A65" s="62">
         <v>63</v>
       </c>
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="C65" s="65" t="s">
+      <c r="C65" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="D65" s="68" t="s">
+      <c r="D65" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="66">
+      <c r="A66" s="62">
         <v>64</v>
       </c>
-      <c r="B66" s="65" t="s">
+      <c r="B66" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="C66" s="65" t="s">
+      <c r="C66" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="D66" s="68" t="s">
+      <c r="D66" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="66">
+      <c r="A67" s="62">
         <v>65</v>
       </c>
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="69" t="s">
+      <c r="C67" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="68" t="s">
+      <c r="D67" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="66">
+      <c r="A68" s="62">
         <v>66</v>
       </c>
-      <c r="B68" s="65" t="s">
+      <c r="B68" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="C68" s="68" t="s">
+      <c r="C68" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D68" s="68" t="s">
+      <c r="D68" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="66">
+      <c r="A69" s="62">
         <v>67</v>
       </c>
-      <c r="B69" s="65" t="s">
+      <c r="B69" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="C69" s="68" t="s">
+      <c r="C69" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D69" s="68" t="s">
+      <c r="D69" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="66">
+      <c r="A70" s="62">
         <v>68</v>
       </c>
-      <c r="B70" s="65" t="s">
+      <c r="B70" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="C70" s="68" t="s">
+      <c r="C70" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D70" s="68" t="s">
+      <c r="D70" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="66">
+      <c r="A71" s="62">
         <v>69</v>
       </c>
-      <c r="B71" s="65" t="s">
+      <c r="B71" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="C71" s="68" t="s">
+      <c r="C71" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D71" s="68" t="s">
+      <c r="D71" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="66">
+      <c r="A72" s="62">
         <v>70</v>
       </c>
-      <c r="B72" s="65" t="s">
+      <c r="B72" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="68" t="s">
+      <c r="C72" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D72" s="68" t="s">
+      <c r="D72" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="66">
+      <c r="A73" s="62">
         <v>71</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="C73" s="68" t="s">
+      <c r="C73" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D73" s="68" t="s">
+      <c r="D73" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="66">
+      <c r="A74" s="62">
         <v>72</v>
       </c>
-      <c r="B74" s="65" t="s">
+      <c r="B74" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="68" t="s">
+      <c r="C74" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D74" s="68" t="s">
+      <c r="D74" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="66">
+      <c r="A75" s="62">
         <v>73</v>
       </c>
-      <c r="B75" s="65" t="s">
+      <c r="B75" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="C75" s="68" t="s">
+      <c r="C75" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D75" s="68" t="s">
+      <c r="D75" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="66">
+      <c r="A76" s="62">
         <v>74</v>
       </c>
-      <c r="B76" s="65" t="s">
+      <c r="B76" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="C76" s="68" t="s">
+      <c r="C76" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D76" s="68" t="s">
+      <c r="D76" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="66">
+      <c r="A77" s="62">
         <v>75</v>
       </c>
-      <c r="B77" s="65" t="s">
+      <c r="B77" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="C77" s="68" t="s">
+      <c r="C77" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D77" s="68" t="s">
+      <c r="D77" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="66">
+      <c r="A78" s="62">
         <v>76</v>
       </c>
-      <c r="B78" s="65" t="s">
+      <c r="B78" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="C78" s="68" t="s">
+      <c r="C78" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D78" s="68" t="s">
+      <c r="D78" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="66">
+      <c r="A79" s="62">
         <v>77</v>
       </c>
-      <c r="B79" s="65" t="s">
+      <c r="B79" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="C79" s="68" t="s">
+      <c r="C79" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D79" s="68" t="s">
+      <c r="D79" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="66">
+      <c r="A80" s="62">
         <v>78</v>
       </c>
-      <c r="B80" s="65" t="s">
+      <c r="B80" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="C80" s="68" t="s">
+      <c r="C80" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D80" s="68" t="s">
+      <c r="D80" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="66">
+      <c r="A81" s="62">
         <v>79</v>
       </c>
-      <c r="B81" s="65" t="s">
+      <c r="B81" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="68" t="s">
+      <c r="C81" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D81" s="68" t="s">
+      <c r="D81" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="66">
+      <c r="A82" s="62">
         <v>80</v>
       </c>
-      <c r="B82" s="65" t="s">
+      <c r="B82" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="68" t="s">
+      <c r="C82" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D82" s="68" t="s">
+      <c r="D82" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="66">
+      <c r="A83" s="62">
         <v>81</v>
       </c>
-      <c r="B83" s="65" t="s">
+      <c r="B83" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="C83" s="68" t="s">
+      <c r="C83" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D83" s="68" t="s">
+      <c r="D83" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="66">
+      <c r="A84" s="62">
         <v>82</v>
       </c>
-      <c r="B84" s="65" t="s">
+      <c r="B84" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="68" t="s">
+      <c r="C84" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D84" s="68" t="s">
+      <c r="D84" s="64" t="s">
         <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
